--- a/src/testCase/c_useCase_file/Fiberbook/刚度约束设计响应/位移约束设计响应.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/刚度约束设计响应/位移约束设计响应.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="控件属性已经操作方法" sheetId="2" r:id="rId1"/>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>预期结果文本信息</t>
   </si>
@@ -407,86 +407,250 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示弹窗；信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束上限复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束方向下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束下限复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名Include文件displacement_constrain已存在。是否继续?；开始创建应变耦合DRESP3…应变耦合DRESP3创建成功!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyyssjxy001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>displacement_constrain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化-&gt;优化设置-&gt;刚度约束设计响应-&gt;位移设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束下限复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束上限复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移约束上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束方向下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出到include文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>选择结构单元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示弹窗；信息窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 整个被测模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元][Button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束方向下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同名Include文件displacement_constrain已存在。是否继续?；开始创建应变耦合DRESP3…应变耦合DRESP3创建成功!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wyyssjxy001</t>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -494,187 +658,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>displacement_constrain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化-&gt;优化设置-&gt;刚度约束设计响应-&gt;位移设计响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束下限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移约束上限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束方向下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选</t>
+    <t>选择节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择节点][Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择全部的节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1127,164 +1123,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="2" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="I3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="L3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1292,42 +1290,42 @@
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -1365,78 +1363,78 @@
     </row>
     <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1444,75 +1442,75 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1532,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1588,28 +1586,28 @@
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -1623,71 +1621,71 @@
     </row>
     <row r="2" spans="1:23" s="15" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="J2" s="13">
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="9">
         <v>0.2</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P2" s="11">
         <v>40</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
